--- a/data/trans_bre/P11_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>3.368159973597559</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5.881754589856955</v>
+        <v>5.881754589856961</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4774482544014939</v>
@@ -649,7 +649,7 @@
         <v>0.2344211811311992</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.2746551751501907</v>
+        <v>0.2746551751501909</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.553412111008974</v>
+        <v>1.27078240017034</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.112300325727421</v>
+        <v>-1.348544723607519</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.709578576522634</v>
+        <v>-2.199138388995749</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8368636307497044</v>
+        <v>0.4468155121276873</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.09248896753360067</v>
+        <v>0.07426320198132194</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.0956012574159793</v>
+        <v>-0.09871338358941717</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1554282442490794</v>
+        <v>-0.1404122212998539</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.03366756934874848</v>
+        <v>0.02071686172841762</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.41576905506595</v>
+        <v>13.45295157761511</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.789119435171976</v>
+        <v>9.45187066338185</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.610274383370545</v>
+        <v>8.804720197259181</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.55105444437443</v>
+        <v>10.9804016072342</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.051333347514274</v>
+        <v>1.060918218945487</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9684902637326591</v>
+        <v>0.9383045032012934</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7180049719849594</v>
+        <v>0.7626165718331838</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.5602320290804627</v>
+        <v>0.5843153546228194</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>7.072741831562176</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6.700775644050489</v>
+        <v>6.700775644050486</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5491194311936273</v>
@@ -749,7 +749,7 @@
         <v>0.5797744914220779</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.3014556654147601</v>
+        <v>0.3014556654147599</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6657372819791351</v>
+        <v>1.293965030516561</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.557217263762536</v>
+        <v>-3.81894521758143</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.325373665687682</v>
+        <v>1.311341518510887</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.161398113261099</v>
+        <v>1.970839083556815</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.04142188701724557</v>
+        <v>0.07916080740595921</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1895736985177702</v>
+        <v>-0.2095958952522482</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06055999149335484</v>
+        <v>0.08365768011805479</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.04517964984920081</v>
+        <v>0.07518249456287188</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>12.06329484994148</v>
+        <v>12.46208197130174</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.296385224217142</v>
+        <v>7.79169743944112</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11.98209112428677</v>
+        <v>12.23350760668064</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12.17285512304704</v>
+        <v>12.17121442883926</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.312299185879936</v>
+        <v>1.361293413094888</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5947423011666381</v>
+        <v>0.5466677393468821</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.196992899565969</v>
+        <v>1.327212139359122</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6229771976412325</v>
+        <v>0.6353572956624403</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>8.371676040649303</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14.96992920194404</v>
+        <v>14.96992920194403</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6318128987125027</v>
@@ -849,7 +849,7 @@
         <v>0.410166935913364</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.5024034183405066</v>
+        <v>0.5024034183405062</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.460286813367083</v>
+        <v>4.789641551460882</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.172808046500441</v>
+        <v>2.166662104772641</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.4504255227430035</v>
+        <v>-0.1834356022318886</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8.592757385625639</v>
+        <v>8.285105122058734</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1811838697748005</v>
+        <v>0.2365010893567888</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0885313533120366</v>
+        <v>0.08587398610837421</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.01874502837034021</v>
+        <v>-0.008229002287907978</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.2676891070352954</v>
+        <v>0.2568431652882028</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>19.35413817483039</v>
+        <v>19.55535993891517</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.63051679641695</v>
+        <v>15.2508769187832</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16.41546330383759</v>
+        <v>16.12793917853078</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>22.41261984845143</v>
+        <v>22.64869706578213</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.198120699479799</v>
+        <v>1.192308671879243</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7683076836757745</v>
+        <v>0.7235802120685471</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8732061896269565</v>
+        <v>0.8649932520181964</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.8328345663676003</v>
+        <v>0.8457387144658489</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>2.628104915730306</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.180290766884653</v>
+        <v>4.180290766884637</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1563940271328209</v>
@@ -949,7 +949,7 @@
         <v>0.1193745003465591</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1367006738665724</v>
+        <v>0.1367006738665719</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.337843421693438</v>
+        <v>-0.385360659891734</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.271863455276343</v>
+        <v>-1.323750057985464</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.347119382105786</v>
+        <v>-0.9149372314302721</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3705428902730919</v>
+        <v>0.299263723401925</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.01760845089952219</v>
+        <v>-0.01794225069542658</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.05357060712484459</v>
+        <v>-0.05750238634317148</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.05784812137851196</v>
+        <v>-0.03805873172928452</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.01186061020776521</v>
+        <v>0.009807198647154545</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.580910172716078</v>
+        <v>7.837045320117155</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.492408222436177</v>
+        <v>7.204706743566621</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.472800253372843</v>
+        <v>6.781924272766725</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.821973885691748</v>
+        <v>8.295353375858847</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.347664829784794</v>
+        <v>0.3696833415490844</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3185251957216655</v>
+        <v>0.3538025901474847</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3213750708421275</v>
+        <v>0.3325817077341102</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2764314290009459</v>
+        <v>0.2896385214387536</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>0.5152849758600812</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.4498030945813788</v>
+        <v>0.449803094581379</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.423081791408906</v>
+        <v>0.3324550657923703</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>13.82204562018907</v>
+        <v>14.4357651124005</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.081465011639751</v>
+        <v>7.233358881804694</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8.579741890119228</v>
+        <v>8.965804749530458</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.01253870028253764</v>
+        <v>0.008390960728177176</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5896423436964369</v>
+        <v>0.6321872654150711</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2679890976049802</v>
+        <v>0.2705711591676163</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.2435028706659138</v>
+        <v>0.2545970087872501</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.09420143218611</v>
+        <v>12.35883745972589</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>23.88700458034862</v>
+        <v>24.31904497161433</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.11783398607044</v>
+        <v>17.21807193766517</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19.17007277078158</v>
+        <v>19.02368075522934</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.6285367870373294</v>
+        <v>0.6700100879381891</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.374957298776625</v>
+        <v>1.432200189482211</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8061229045443815</v>
+        <v>0.8168683179742103</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.6977642228950406</v>
+        <v>0.6648278750317511</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>28.43213253232163</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28.90027083484048</v>
+        <v>28.90027083484049</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>4.262835870791546</v>
@@ -1149,7 +1149,7 @@
         <v>5.431695534943139</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>2.664017633554631</v>
+        <v>2.664017633554632</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>25.48761112733432</v>
+        <v>25.1448887461567</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>25.97826366113662</v>
+        <v>25.71556172905024</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>24.22902203658462</v>
+        <v>24.44554311782684</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>21.26906396407377</v>
+        <v>21.1138350763622</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>2.625419674491889</v>
+        <v>2.535236394981553</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>2.367103618260785</v>
+        <v>2.428629405621273</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>2.950942925398524</v>
+        <v>2.889768589422843</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>1.202244919195109</v>
+        <v>1.136304240632867</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>33.39334785810534</v>
+        <v>33.11128609560225</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>34.40851291232402</v>
+        <v>34.79491054343694</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>32.56226743704635</v>
+        <v>32.86981367206288</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>34.52070565141037</v>
+        <v>34.45693743200724</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>7.525493303691959</v>
+        <v>7.713847704342821</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>8.007292556609071</v>
+        <v>7.512539825299188</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>11.36526867872525</v>
+        <v>11.41223860451949</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>5.464614574269799</v>
+        <v>5.37459833516734</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>10.12536655969392</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10.65053911047359</v>
+        <v>10.6505391104736</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6041793241499327</v>
@@ -1249,7 +1249,7 @@
         <v>0.5442180930874513</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.399516382138142</v>
+        <v>0.3995163821381422</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>8.794403508983418</v>
+        <v>8.956426971111373</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>10.17936474742712</v>
+        <v>10.24885346418909</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7.867459439779048</v>
+        <v>7.965808857122976</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8.391974677667122</v>
+        <v>8.655891503070642</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.4562092179541211</v>
+        <v>0.4599348679005502</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5032564656505077</v>
+        <v>0.5106942406225849</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.400792549949972</v>
+        <v>0.4035863797314769</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.299730806699719</v>
+        <v>0.3123659788163622</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.00367868146091</v>
+        <v>13.05664604838282</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>14.44575566196304</v>
+        <v>14.3567559662346</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11.99973708458723</v>
+        <v>12.11193217355964</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.59162108720721</v>
+        <v>12.74418227257472</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.7540565790900728</v>
+        <v>0.7575618280147798</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.807369029127328</v>
+        <v>0.8061911733188784</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6877881370850613</v>
+        <v>0.6893053177625447</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.4977316064455654</v>
+        <v>0.500510962280844</v>
       </c>
     </row>
     <row r="25">
